--- a/Benchmark-Models/Chen_MSB2009/Data/model1_data4.xlsx
+++ b/Benchmark-Models/Chen_MSB2009/Data/model1_data4.xlsx
@@ -480,13 +480,13 @@
         <v>1800.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.6576024368483166E-25</v>
+        <v>7.935379091409406E-19</v>
       </c>
       <c r="C2" t="n">
-        <v>2.193381243006495E-17</v>
+        <v>1.8730848893942073E-65</v>
       </c>
       <c r="D2" t="n">
-        <v>2.5385066850060206E-18</v>
+        <v>2.1975287629784377E-67</v>
       </c>
     </row>
     <row r="3">
@@ -494,13 +494,13 @@
         <v>1950.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2.710032469988571E-7</v>
+        <v>2.9268971678437556E-5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.17050572440700984</v>
+        <v>11.850800084872</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196309761865359</v>
+        <v>17.771731450919308</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>2100.0</v>
       </c>
       <c r="B4" t="n">
-        <v>3.0424212188946135E-7</v>
+        <v>3.285787763735164E-5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3457188158551593</v>
+        <v>24.016254020771903</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5500995554777097</v>
+        <v>49.784385219467374</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         <v>2250.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2.8795461477018444E-7</v>
+        <v>3.109868213325136E-5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.32997601342011756</v>
+        <v>22.909527041942965</v>
       </c>
       <c r="D5" t="n">
-        <v>0.601008569604296</v>
+        <v>54.39191961738205</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>2400.0</v>
       </c>
       <c r="B6" t="n">
-        <v>2.7997325411965043E-7</v>
+        <v>3.023658109532964E-5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3104198176598357</v>
+        <v>21.53706482989181</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6344562092686378</v>
+        <v>57.41955020679926</v>
       </c>
     </row>
     <row r="7">
@@ -550,13 +550,13 @@
         <v>2700.0</v>
       </c>
       <c r="B7" t="n">
-        <v>2.779526341843312E-7</v>
+        <v>3.0018253093708273E-5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2676310487418647</v>
+        <v>18.544931734602798</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6773848158356408</v>
+        <v>61.30703126636506</v>
       </c>
     </row>
     <row r="8">
@@ -564,13 +564,13 @@
         <v>3600.0</v>
       </c>
       <c r="B8" t="n">
-        <v>2.8553380014761604E-7</v>
+        <v>3.0835954666303874E-5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.13050440305076774</v>
+        <v>13.141956925234286</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7405109263613667</v>
+        <v>66.70127869164776</v>
       </c>
     </row>
     <row r="9">
@@ -578,13 +578,13 @@
         <v>4500.0</v>
       </c>
       <c r="B9" t="n">
-        <v>2.9642996233138765E-7</v>
+        <v>3.201244665580381E-5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.021835468893916753</v>
+        <v>11.624496289983956</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7767305387710577</v>
+        <v>68.58750429666769</v>
       </c>
     </row>
     <row r="10">
@@ -592,13 +592,13 @@
         <v>5400.0</v>
       </c>
       <c r="B10" t="n">
-        <v>3.0949771185561023E-7</v>
+        <v>3.343245617309693E-5</v>
       </c>
       <c r="C10" t="n">
-        <v>9.410600571043681E-4</v>
+        <v>11.266199862362518</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7996915517313036</v>
+        <v>69.0199062321509</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         <v>9000.0</v>
       </c>
       <c r="B11" t="n">
-        <v>3.6807022305111733E-7</v>
+        <v>4.001218782721183E-5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.5419594367660634E-5</v>
+        <v>11.185668683451231</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8263261042469333</v>
+        <v>65.47358380173422</v>
       </c>
     </row>
   </sheetData>
